--- a/DADOS_UNIVERSIDADES_E_CENTROS_PED.xlsx
+++ b/DADOS_UNIVERSIDADES_E_CENTROS_PED.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sgq\Desktop\Projetos\Mapa-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C0FB8-94C8-4526-AE3A-CEF28451C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CB1C52-1CA4-4EAC-BB87-C8D59FB30899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,289 +43,289 @@
     <t>Núcleo de Pesquisa em Hidrogênio</t>
   </si>
   <si>
+    <t>GESEL - UFRJ</t>
+  </si>
+  <si>
+    <t>Mobilidade elétrica e introdução de hidrogênio</t>
+  </si>
+  <si>
+    <t>SENAI CIMATEC</t>
+  </si>
+  <si>
+    <t>Eficiência energética e indústrias sustentáveis</t>
+  </si>
+  <si>
+    <t>Eletrobras CEPEL</t>
+  </si>
+  <si>
+    <t>Laboratório de Células a Combustível</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Uberlândia</t>
+  </si>
+  <si>
+    <t>Produção de hidrogênio a partir da reforma de metano e etanol</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Paraná</t>
+  </si>
+  <si>
+    <t>Laboratório de Catálise e Produção de Biocombustíveis – LabCatProBio</t>
+  </si>
+  <si>
+    <t>GPMOT – Universidade de Santa Maria, RS</t>
+  </si>
+  <si>
+    <t>Grupo de Pesquisa em Motores, Combustíveis e Emissões</t>
+  </si>
+  <si>
+    <t>UFRN/ Creation Research Group - Renewable Energies</t>
+  </si>
+  <si>
+    <t>Análise da competitividade da utilização do hidrogênio na mobilidade</t>
+  </si>
+  <si>
+    <t>Campus Universitário - Lagoa Nova, Natal - RN, 59078-970</t>
+  </si>
+  <si>
+    <t>Embrapa – Empresa Brasileira da Pesquisa Agropecuária</t>
+  </si>
+  <si>
+    <t>Instituto SENAI de Inovação em Energias Renováveis</t>
+  </si>
+  <si>
+    <t>Energias renováveis</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Itajubá</t>
+  </si>
+  <si>
+    <t>Instituto de Sistemas Elétricos e Energia-ISEE</t>
+  </si>
+  <si>
+    <t>Universidade Estadual de Campinas</t>
+  </si>
+  <si>
+    <t>Laboratório de Hidrogênio LH2</t>
+  </si>
+  <si>
+    <t>Cidade Universitária Zeferino Vaz - Barão Geraldo, Campinas - SP, 13083-970</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Rio de Janeiro/COPPE</t>
+  </si>
+  <si>
+    <t>LabH2 - Laboratório de Hidrogênio da COPPE</t>
+  </si>
+  <si>
+    <t>Universidade Federal de São Carlos</t>
+  </si>
+  <si>
+    <t>Departamento de Tecnologia Agroindustrial e Socioeconomia Rural</t>
+  </si>
+  <si>
+    <t>Universidade de São Paulo</t>
+  </si>
+  <si>
+    <t>Research Center for Gas Innovation</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Ceará</t>
+  </si>
+  <si>
+    <t>Centro de Tecnologia</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Foz do Iguaçu</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Nova Iguaçu</t>
+  </si>
+  <si>
+    <t>Uberlândia</t>
+  </si>
+  <si>
+    <t>Palotina</t>
+  </si>
+  <si>
+    <t>Santa Maria</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Itajubá</t>
+  </si>
+  <si>
+    <t>São Carlos</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>6731, Av, Tancredo Neves - Jardim Itaipu, Foz do Iguaçu - PR</t>
+  </si>
+  <si>
+    <t>Av, Pasteur, 250 - Botafogo, Rio de Janeiro - RJ, 22290-250</t>
+  </si>
+  <si>
+    <t>Av, Orlando Gomes, 1845 - Piatã, Salvador - BA, 41650-010</t>
+  </si>
+  <si>
+    <t>Av, Olinda, 5800 - Adrianópolis, Nova Iguaçu - RJ, 26053-121</t>
+  </si>
+  <si>
+    <t>Av, João Naves de Ávila, 2121 - Santa Mônica, Uberlândia - MG, 38408-100</t>
+  </si>
+  <si>
+    <t>R, Pioneiro, 2153 - Dallas, Palotina - PR, 85950-000</t>
+  </si>
+  <si>
+    <t>R, Limite Norte da Ufsm - Camobi, Santa Maria - RS, 97105-340</t>
+  </si>
+  <si>
+    <t>Produção de hidrogênio e metano a partir de glicerol oriundo de biodiesel,</t>
+  </si>
+  <si>
+    <t>R, Pernambuco, 2270 - Pici, Fortaleza - CE, 60511-110</t>
+  </si>
+  <si>
+    <t>Av, Capitão-Mor Gouveia, 2770 - Lagoa Nova, Natal - RN, 59063-400</t>
+  </si>
+  <si>
+    <t>Av, B P S, 1303 - Pinheirinho, Itajubá - MG, 37500-903</t>
+  </si>
+  <si>
+    <t>Av, Horácio Macedo, 2030 - Cidade Universitária, Rio de Janeiro - RJ, 21941-598</t>
+  </si>
+  <si>
+    <t>Rod, Washington Luís, s/n - Monjolinho, São Carlos - SP, 13565-905</t>
+  </si>
+  <si>
+    <t>R, da Reitoria, 374 - Butantã, São Paulo - SP, 05508-220</t>
+  </si>
+  <si>
+    <t>Av, Humberto Monte - Pici, Fortaleza - CE, 60455-760</t>
+  </si>
+  <si>
+    <t>-5.82380037189317</t>
+  </si>
+  <si>
+    <t>-35.22611936036658</t>
+  </si>
+  <si>
+    <t>-3.7579721579237546</t>
+  </si>
+  <si>
+    <t>-38.57612225743418</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
-    <t>GESEL - UFRJ</t>
-  </si>
-  <si>
-    <t>Mobilidade elétrica e introdução de hidrogênio</t>
-  </si>
-  <si>
-    <t>SENAI CIMATEC</t>
-  </si>
-  <si>
-    <t>Eficiência energética e indústrias sustentáveis</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>Eletrobras CEPEL</t>
-  </si>
-  <si>
-    <t>Laboratório de Células a Combustível</t>
-  </si>
-  <si>
-    <t>Universidade Federal de Uberlândia</t>
-  </si>
-  <si>
-    <t>Produção de hidrogênio a partir da reforma de metano e etanol</t>
-  </si>
-  <si>
-    <t>Universidade Federal do Paraná</t>
-  </si>
-  <si>
-    <t>Laboratório de Catálise e Produção de Biocombustíveis – LabCatProBio</t>
-  </si>
-  <si>
-    <t>GPMOT – Universidade de Santa Maria, RS</t>
-  </si>
-  <si>
-    <t>Grupo de Pesquisa em Motores, Combustíveis e Emissões</t>
-  </si>
-  <si>
-    <t>UFRN/ Creation Research Group - Renewable Energies</t>
-  </si>
-  <si>
-    <t>Análise da competitividade da utilização do hidrogênio na mobilidade</t>
-  </si>
-  <si>
-    <t>Campus Universitário - Lagoa Nova, Natal - RN, 59078-970</t>
-  </si>
-  <si>
-    <t>Embrapa – Empresa Brasileira da Pesquisa Agropecuária</t>
-  </si>
-  <si>
-    <t>Instituto SENAI de Inovação em Energias Renováveis</t>
-  </si>
-  <si>
-    <t>Energias renováveis</t>
-  </si>
-  <si>
-    <t>Universidade Federal de Itajubá</t>
-  </si>
-  <si>
-    <t>Instituto de Sistemas Elétricos e Energia-ISEE</t>
-  </si>
-  <si>
-    <t>Universidade Estadual de Campinas</t>
-  </si>
-  <si>
-    <t>Laboratório de Hidrogênio LH2</t>
-  </si>
-  <si>
-    <t>Cidade Universitária Zeferino Vaz - Barão Geraldo, Campinas - SP, 13083-970</t>
-  </si>
-  <si>
-    <t>Universidade Federal do Rio de Janeiro/COPPE</t>
-  </si>
-  <si>
-    <t>LabH2 - Laboratório de Hidrogênio da COPPE</t>
-  </si>
-  <si>
-    <t>Universidade Federal de São Carlos</t>
-  </si>
-  <si>
-    <t>Departamento de Tecnologia Agroindustrial e Socioeconomia Rural</t>
-  </si>
-  <si>
-    <t>Universidade de São Paulo</t>
-  </si>
-  <si>
-    <t>Research Center for Gas Innovation</t>
-  </si>
-  <si>
-    <t>Universidade Federal do Ceará</t>
-  </si>
-  <si>
-    <t>Centro de Tecnologia</t>
-  </si>
-  <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Cidade</t>
-  </si>
-  <si>
-    <t>Foz do Iguaçu</t>
-  </si>
-  <si>
-    <t>Natal</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Nova Iguaçu</t>
-  </si>
-  <si>
-    <t>Uberlândia</t>
-  </si>
-  <si>
-    <t>Palotina</t>
-  </si>
-  <si>
-    <t>Santa Maria</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Itajubá</t>
-  </si>
-  <si>
-    <t>São Carlos</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Campinas</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>6731, Av, Tancredo Neves - Jardim Itaipu, Foz do Iguaçu - PR</t>
-  </si>
-  <si>
-    <t>https://www,itaipuparquetec,org,br/</t>
-  </si>
-  <si>
-    <t>Av, Pasteur, 250 - Botafogo, Rio de Janeiro - RJ, 22290-250</t>
-  </si>
-  <si>
-    <t>https://gesel,ie,ufrj,br/</t>
-  </si>
-  <si>
-    <t>Av, Orlando Gomes, 1845 - Piatã, Salvador - BA, 41650-010</t>
-  </si>
-  <si>
-    <t>http://www,senaicimatec,com,br/</t>
-  </si>
-  <si>
-    <t>Av, Olinda, 5800 - Adrianópolis, Nova Iguaçu - RJ, 26053-121</t>
-  </si>
-  <si>
-    <t>https://www,cepel,br/pt_br/</t>
-  </si>
-  <si>
-    <t>Av, João Naves de Ávila, 2121 - Santa Mônica, Uberlândia - MG, 38408-100</t>
-  </si>
-  <si>
-    <t>http://www,ufu,br/</t>
-  </si>
-  <si>
-    <t>R, Pioneiro, 2153 - Dallas, Palotina - PR, 85950-000</t>
-  </si>
-  <si>
-    <t>https://ufpr,br/</t>
-  </si>
-  <si>
-    <t>R, Limite Norte da Ufsm - Camobi, Santa Maria - RS, 97105-340</t>
-  </si>
-  <si>
-    <t>https://coral,ufsm,br/gpmot/index,php</t>
-  </si>
-  <si>
-    <t>https://ufrn,br/</t>
-  </si>
-  <si>
-    <t>Produção de hidrogênio e metano a partir de glicerol oriundo de biodiesel,</t>
-  </si>
-  <si>
-    <t>R, Pernambuco, 2270 - Pici, Fortaleza - CE, 60511-110</t>
-  </si>
-  <si>
-    <t>https://www,embrapa,br/</t>
-  </si>
-  <si>
-    <t>Av, Capitão-Mor Gouveia, 2770 - Lagoa Nova, Natal - RN, 59063-400</t>
-  </si>
-  <si>
-    <t>https://www,rn,senai,br/isi-er/</t>
-  </si>
-  <si>
-    <t>Av, B P S, 1303 - Pinheirinho, Itajubá - MG, 37500-903</t>
-  </si>
-  <si>
-    <t>https://unifei,edu,br/</t>
-  </si>
-  <si>
-    <t>https://portal,ifi,unicamp,br/</t>
-  </si>
-  <si>
-    <t>Av, Horácio Macedo, 2030 - Cidade Universitária, Rio de Janeiro - RJ, 21941-598</t>
-  </si>
-  <si>
-    <t>https://www,labh2,coppe,ufrj,br/index</t>
-  </si>
-  <si>
-    <t>Rod, Washington Luís, s/n - Monjolinho, São Carlos - SP, 13565-905</t>
-  </si>
-  <si>
-    <t>https://www,vico,ufscar,br/</t>
-  </si>
-  <si>
-    <t>R, da Reitoria, 374 - Butantã, São Paulo - SP, 05508-220</t>
-  </si>
-  <si>
-    <t>https://sites,usp,br/rcgi/pt-br/</t>
-  </si>
-  <si>
-    <t>Av, Humberto Monte - Pici, Fortaleza - CE, 60455-760</t>
-  </si>
-  <si>
-    <t>https://ct,ufc,br/pt/</t>
-  </si>
-  <si>
-    <t>-5.82380037189317</t>
-  </si>
-  <si>
-    <t>-35.22611936036658</t>
-  </si>
-  <si>
-    <t>-3.7579721579237546</t>
-  </si>
-  <si>
-    <t>-38.57612225743418</t>
+    <t>https://www.itaipuparquetec.org.br/</t>
+  </si>
+  <si>
+    <t>https://gesel.ie.ufrj.br/</t>
+  </si>
+  <si>
+    <t>http://www.senaicimatec.com.br/</t>
+  </si>
+  <si>
+    <t>https://www.cepel.br/pt_br/</t>
+  </si>
+  <si>
+    <t>http://www.ufu.br/</t>
+  </si>
+  <si>
+    <t>https://ufpr.br/</t>
+  </si>
+  <si>
+    <t>https://coral.ufsm.br/gpmot/index.php</t>
+  </si>
+  <si>
+    <t>https://ufrn.br/</t>
+  </si>
+  <si>
+    <t>https://www.embrapa.br/</t>
+  </si>
+  <si>
+    <t>https://www.rn.senai.br/isi-er/</t>
+  </si>
+  <si>
+    <t>https://unifei.edu.br/</t>
+  </si>
+  <si>
+    <t>https://portal.ifi.unicamp.br/</t>
+  </si>
+  <si>
+    <t>https://www.labh2.coppe.ufrj.br/index</t>
+  </si>
+  <si>
+    <t>https://www.vico.ufscar.br/</t>
+  </si>
+  <si>
+    <t>https://sites.usp.br/rcgi/pt-br/</t>
+  </si>
+  <si>
+    <t>https://ct.ufc.br/pt/</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -870,19 +870,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -896,19 +896,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2" s="4">
         <v>-25.435342772511699</v>
@@ -917,30 +917,30 @@
         <v>-54.594923158303899</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4">
         <v>-22.952242660762799</v>
@@ -949,30 +949,30 @@
         <v>-43.174440543408302</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="4">
         <v>-12.938084773185199</v>
@@ -981,30 +981,30 @@
         <v>-38.387294750265603</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="4">
         <v>-22.637665738135301</v>
@@ -1013,30 +1013,30 @@
         <v>-43.4821938344054</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="4">
         <v>-18.852205426334599</v>
@@ -1045,30 +1045,30 @@
         <v>-48.255429732806597</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="4">
         <v>-24.218475079818901</v>
@@ -1077,30 +1077,30 @@
         <v>-53.782904568983099</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="4">
         <v>-29.711744669096799</v>
@@ -1109,30 +1109,30 @@
         <v>-53.715765959852703</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4">
         <v>-5.8394968577795199</v>
@@ -1141,94 +1141,94 @@
         <v>-35.201696604545802</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="4">
         <v>-22.412614374919201</v>
@@ -1237,30 +1237,30 @@
         <v>-45.449743375321297</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="4">
         <v>-22.818320609098901</v>
@@ -1269,30 +1269,30 @@
         <v>-47.064613315783902</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="4">
         <v>-22.8606152142581</v>
@@ -1301,30 +1301,30 @@
         <v>-43.228950627099998</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="4">
         <v>-21.983904641347099</v>
@@ -1333,30 +1333,30 @@
         <v>-47.881504917664103</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="4">
         <v>-23.557701314748702</v>
@@ -1365,30 +1365,30 @@
         <v>-46.731990730549299</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H17" s="4">
         <v>-3.73804901446369</v>
@@ -1397,31 +1397,32 @@
         <v>-38.574814009303701</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="https://www.itaipuparquetec.org.br/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" display="https://gesel.ie.ufrj.br/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" display="http://www.senaicimatec.com.br/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J5" r:id="rId4" display="https://www.cepel.br/pt_br/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J6" r:id="rId5" display="http://www.ufu.br/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J7" r:id="rId6" display="https://ufpr.br/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J8" r:id="rId7" display="https://coral.ufsm.br/gpmot/index.php" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J9" r:id="rId8" display="https://ufrn.br/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J10" r:id="rId9" display="https://www.embrapa.br/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J11" r:id="rId10" display="https://www.rn.senai.br/isi-er/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J12" r:id="rId11" display="https://unifei.edu.br/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J13" r:id="rId12" display="https://portal.ifi.unicamp.br/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J14" r:id="rId13" display="https://www.labh2.coppe.ufrj.br/index" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J15" r:id="rId14" display="https://www.vico.ufscar.br/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J16" r:id="rId15" display="https://sites.usp.br/rcgi/pt-br/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J17" r:id="rId16" display="https://ct.ufc.br/pt/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>